--- a/double check calcs.xlsx
+++ b/double check calcs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd352047a223abfe/Documents/AI_Bootcamp/1_DataClass/pandas-challenge-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{6D59D7D7-516A-4FAE-9AD6-02B75BBDA3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6E8A21-4067-4C36-BCDE-276B0952C9E4}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{6D59D7D7-516A-4FAE-9AD6-02B75BBDA3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8715FFA1-F0FB-445F-BFE7-A79D08ACC658}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="1476" windowWidth="21600" windowHeight="9372" xr2:uid="{1DBF9D11-EA11-465D-B8C8-BEB0A2B688B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>subtotal price</t>
   </si>
@@ -47,9 +48,6 @@
     <t>shipping rate</t>
   </si>
   <si>
-    <t>tax rate</t>
-  </si>
-  <si>
     <t>total price</t>
   </si>
   <si>
@@ -63,6 +61,18 @@
   </si>
   <si>
     <t>profit</t>
+  </si>
+  <si>
+    <t>shipping price</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>price w tax</t>
+  </si>
+  <si>
+    <t>instructions are including shipping price in amount taxed</t>
   </si>
 </sst>
 </file>
@@ -96,12 +106,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,11 +139,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -138,6 +168,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244548</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A computer screen shot of a program code&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CECE72-F059-6AC7-E26D-B21B24941B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8169348" cy="4168501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,256 +520,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB06B1B-35EF-432D-A2D7-0A69216544D9}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>115164</v>
+      </c>
+      <c r="B3" s="2">
+        <v>787.5</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v>5512.5</v>
+      </c>
+      <c r="E3" s="8">
+        <f>(A3+D3)*0.0925</f>
+        <v>11162.57625</v>
+      </c>
+      <c r="F3" s="3">
+        <f>A3*1.0925</f>
+        <v>125816.67</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3+D3</f>
+        <v>131329.16999999998</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3-G13</f>
+        <v>45732.119999999981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>523.95000000000005</v>
+      </c>
+      <c r="B4">
+        <v>31.29</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
+        <v>312.89999999999998</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E5" si="1">(A4+D4)*0.0925</f>
+        <v>77.408625000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F7" si="2">A4*1.0925</f>
+        <v>572.41537500000004</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G7" si="3">F4+D4</f>
+        <v>885.31537500000002</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I7" si="4">G4-G14</f>
+        <v>255.52537500000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>527.28</v>
+      </c>
+      <c r="B5">
+        <v>65.52</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>458.64</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>91.197599999999994</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>576.05340000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>1034.6934000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="4"/>
+        <v>269.51340000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1056.18</v>
+      </c>
+      <c r="B6">
+        <v>35.67</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>356.70000000000005</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>1153.8766500000002</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="3"/>
+        <v>1510.5766500000002</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="4"/>
+        <v>433.22665000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3902</v>
+      </c>
+      <c r="B7">
+        <v>928.6</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>6500.2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>4262.9350000000004</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="3"/>
+        <v>10763.135</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="4"/>
+        <v>2099.5349999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>115164</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>762.71</v>
+      </c>
+      <c r="B13">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
         <v>787.5</v>
       </c>
-      <c r="C2">
+      <c r="G13" s="7">
+        <f>(A13*B13) + (F13*C13)</f>
+        <v>85597.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>15.09</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>31.29</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:G17" si="5">(A14*B14) + (F14*C14)</f>
+        <v>629.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7.86</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="E2" s="3">
-        <f>A2+(B2*C2)+(A2*(1+D2))</f>
-        <v>246493.16999999998</v>
-      </c>
-      <c r="G2" s="3">
-        <f>E2-E12</f>
-        <v>160896.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>523.95000000000005</v>
-      </c>
-      <c r="B3">
-        <v>31.29</v>
-      </c>
-      <c r="C3">
+      <c r="F15">
+        <v>65.52</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="5"/>
+        <v>765.18000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>24.85</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E6" si="0">A3+(B3*C3)+(A3*(1+D3))</f>
-        <v>1409.2653749999999</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G6" si="1">E3-E13</f>
-        <v>779.47537499999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>527.28</v>
-      </c>
-      <c r="B4">
-        <v>65.52</v>
-      </c>
-      <c r="C4">
+      <c r="F16">
+        <v>35.67</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="5"/>
+        <v>1077.3500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>108.17</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>1561.9733999999999</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="1"/>
-        <v>796.79339999999979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1056.18</v>
-      </c>
-      <c r="B5">
-        <v>35.67</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>2566.7566500000003</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>1489.4066500000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3902</v>
-      </c>
-      <c r="B6">
+      <c r="F17">
         <v>928.6</v>
       </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>14665.135000000002</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>6001.5350000000017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>762.71</v>
-      </c>
-      <c r="B12">
-        <v>105</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>787.5</v>
-      </c>
-      <c r="E12" s="3">
-        <f>(A12*B12) + (D12*C12)</f>
-        <v>85597.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>15.09</v>
-      </c>
-      <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>31.29</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13:E16" si="2">(A13*B13) + (D13*C13)</f>
-        <v>629.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7.86</v>
-      </c>
-      <c r="B14">
-        <v>39</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>65.52</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="2"/>
-        <v>765.18000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>24.85</v>
-      </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>35.67</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="2"/>
-        <v>1077.3500000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>108.17</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>928.6</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="2"/>
+      <c r="G17" s="3">
+        <f t="shared" si="5"/>
         <v>8663.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937F41E3-85F7-4652-8DCA-B81E909C069C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>